--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_119.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_119.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d75671-Reviews-The_Comfort_Inn_Suites_Anaheim_Disneyland_Resort-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>601</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Comfort-Inn-And-Suites-Anaheim.h24649.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_119.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_119.xlsx
@@ -8639,7 +8639,7 @@
         <v>26022</v>
       </c>
       <c r="B2" t="n">
-        <v>130938</v>
+        <v>161682</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -8704,7 +8704,7 @@
         <v>26022</v>
       </c>
       <c r="B3" t="n">
-        <v>130939</v>
+        <v>161683</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -8769,7 +8769,7 @@
         <v>26022</v>
       </c>
       <c r="B4" t="n">
-        <v>130940</v>
+        <v>161684</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -8968,7 +8968,7 @@
         <v>26022</v>
       </c>
       <c r="B7" t="n">
-        <v>130941</v>
+        <v>161685</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -9039,7 +9039,7 @@
         <v>26022</v>
       </c>
       <c r="B8" t="n">
-        <v>130942</v>
+        <v>161686</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -9179,7 +9179,7 @@
         <v>26022</v>
       </c>
       <c r="B10" t="n">
-        <v>130943</v>
+        <v>161687</v>
       </c>
       <c r="C10" t="s">
         <v>128</v>
@@ -9305,7 +9305,7 @@
         <v>26022</v>
       </c>
       <c r="B12" t="n">
-        <v>130944</v>
+        <v>161688</v>
       </c>
       <c r="C12" t="s">
         <v>146</v>
@@ -9374,7 +9374,7 @@
         <v>26022</v>
       </c>
       <c r="B13" t="n">
-        <v>130945</v>
+        <v>161689</v>
       </c>
       <c r="C13" t="s">
         <v>156</v>
@@ -9575,7 +9575,7 @@
         <v>26022</v>
       </c>
       <c r="B16" t="n">
-        <v>130946</v>
+        <v>161690</v>
       </c>
       <c r="C16" t="s">
         <v>181</v>
@@ -9646,7 +9646,7 @@
         <v>26022</v>
       </c>
       <c r="B17" t="n">
-        <v>130947</v>
+        <v>161691</v>
       </c>
       <c r="C17" t="s">
         <v>190</v>
@@ -9780,7 +9780,7 @@
         <v>26022</v>
       </c>
       <c r="B19" t="n">
-        <v>130948</v>
+        <v>161692</v>
       </c>
       <c r="C19" t="s">
         <v>209</v>
@@ -9851,7 +9851,7 @@
         <v>26022</v>
       </c>
       <c r="B20" t="n">
-        <v>130949</v>
+        <v>161693</v>
       </c>
       <c r="C20" t="s">
         <v>218</v>
@@ -9922,7 +9922,7 @@
         <v>26022</v>
       </c>
       <c r="B21" t="n">
-        <v>130950</v>
+        <v>161694</v>
       </c>
       <c r="C21" t="s">
         <v>228</v>
@@ -9993,7 +9993,7 @@
         <v>26022</v>
       </c>
       <c r="B22" t="n">
-        <v>130951</v>
+        <v>161695</v>
       </c>
       <c r="C22" t="s">
         <v>237</v>
@@ -10058,7 +10058,7 @@
         <v>26022</v>
       </c>
       <c r="B23" t="n">
-        <v>130952</v>
+        <v>161696</v>
       </c>
       <c r="C23" t="s">
         <v>246</v>
@@ -10129,7 +10129,7 @@
         <v>26022</v>
       </c>
       <c r="B24" t="n">
-        <v>130953</v>
+        <v>161697</v>
       </c>
       <c r="C24" t="s">
         <v>256</v>
@@ -10271,7 +10271,7 @@
         <v>26022</v>
       </c>
       <c r="B26" t="n">
-        <v>130954</v>
+        <v>161698</v>
       </c>
       <c r="C26" t="s">
         <v>276</v>
@@ -10342,7 +10342,7 @@
         <v>26022</v>
       </c>
       <c r="B27" t="n">
-        <v>130955</v>
+        <v>161699</v>
       </c>
       <c r="C27" t="s">
         <v>285</v>
@@ -10476,7 +10476,7 @@
         <v>26022</v>
       </c>
       <c r="B29" t="n">
-        <v>130956</v>
+        <v>161700</v>
       </c>
       <c r="C29" t="s">
         <v>303</v>
@@ -10545,7 +10545,7 @@
         <v>26022</v>
       </c>
       <c r="B30" t="n">
-        <v>130957</v>
+        <v>161701</v>
       </c>
       <c r="C30" t="s">
         <v>313</v>
@@ -10616,7 +10616,7 @@
         <v>26022</v>
       </c>
       <c r="B31" t="n">
-        <v>130958</v>
+        <v>161702</v>
       </c>
       <c r="C31" t="s">
         <v>323</v>
@@ -10685,7 +10685,7 @@
         <v>26022</v>
       </c>
       <c r="B32" t="n">
-        <v>130959</v>
+        <v>161703</v>
       </c>
       <c r="C32" t="s">
         <v>332</v>
@@ -10754,7 +10754,7 @@
         <v>26022</v>
       </c>
       <c r="B33" t="n">
-        <v>130960</v>
+        <v>161704</v>
       </c>
       <c r="C33" t="s">
         <v>341</v>
@@ -10890,7 +10890,7 @@
         <v>26022</v>
       </c>
       <c r="B35" t="n">
-        <v>130961</v>
+        <v>161705</v>
       </c>
       <c r="C35" t="s">
         <v>358</v>
@@ -11026,7 +11026,7 @@
         <v>26022</v>
       </c>
       <c r="B37" t="n">
-        <v>130962</v>
+        <v>161706</v>
       </c>
       <c r="C37" t="s">
         <v>374</v>
@@ -11095,7 +11095,7 @@
         <v>26022</v>
       </c>
       <c r="B38" t="n">
-        <v>130963</v>
+        <v>161707</v>
       </c>
       <c r="C38" t="s">
         <v>383</v>
@@ -11365,7 +11365,7 @@
         <v>26022</v>
       </c>
       <c r="B42" t="n">
-        <v>130964</v>
+        <v>161708</v>
       </c>
       <c r="C42" t="s">
         <v>417</v>
@@ -11499,7 +11499,7 @@
         <v>26022</v>
       </c>
       <c r="B44" t="n">
-        <v>130965</v>
+        <v>161709</v>
       </c>
       <c r="C44" t="s">
         <v>433</v>
@@ -11568,7 +11568,7 @@
         <v>26022</v>
       </c>
       <c r="B45" t="n">
-        <v>130966</v>
+        <v>161710</v>
       </c>
       <c r="C45" t="s">
         <v>443</v>
@@ -11633,7 +11633,7 @@
         <v>26022</v>
       </c>
       <c r="B46" t="n">
-        <v>130967</v>
+        <v>161711</v>
       </c>
       <c r="C46" t="s">
         <v>450</v>
@@ -11702,7 +11702,7 @@
         <v>26022</v>
       </c>
       <c r="B47" t="n">
-        <v>130968</v>
+        <v>161712</v>
       </c>
       <c r="C47" t="s">
         <v>459</v>
@@ -11771,7 +11771,7 @@
         <v>26022</v>
       </c>
       <c r="B48" t="n">
-        <v>130969</v>
+        <v>161713</v>
       </c>
       <c r="C48" t="s">
         <v>468</v>
@@ -11842,7 +11842,7 @@
         <v>26022</v>
       </c>
       <c r="B49" t="n">
-        <v>130970</v>
+        <v>161714</v>
       </c>
       <c r="C49" t="s">
         <v>477</v>
@@ -12047,7 +12047,7 @@
         <v>26022</v>
       </c>
       <c r="B52" t="n">
-        <v>130971</v>
+        <v>161715</v>
       </c>
       <c r="C52" t="s">
         <v>501</v>
@@ -12116,7 +12116,7 @@
         <v>26022</v>
       </c>
       <c r="B53" t="n">
-        <v>130972</v>
+        <v>161716</v>
       </c>
       <c r="C53" t="s">
         <v>510</v>
@@ -12177,7 +12177,7 @@
         <v>26022</v>
       </c>
       <c r="B54" t="n">
-        <v>130973</v>
+        <v>161717</v>
       </c>
       <c r="C54" t="s">
         <v>519</v>
@@ -12242,7 +12242,7 @@
         <v>26022</v>
       </c>
       <c r="B55" t="n">
-        <v>130974</v>
+        <v>161718</v>
       </c>
       <c r="C55" t="s">
         <v>528</v>
@@ -12313,7 +12313,7 @@
         <v>26022</v>
       </c>
       <c r="B56" t="n">
-        <v>130975</v>
+        <v>161719</v>
       </c>
       <c r="C56" t="s">
         <v>536</v>
@@ -12384,7 +12384,7 @@
         <v>26022</v>
       </c>
       <c r="B57" t="n">
-        <v>130976</v>
+        <v>161720</v>
       </c>
       <c r="C57" t="s">
         <v>545</v>
@@ -12455,7 +12455,7 @@
         <v>26022</v>
       </c>
       <c r="B58" t="n">
-        <v>130977</v>
+        <v>161721</v>
       </c>
       <c r="C58" t="s">
         <v>555</v>
@@ -12520,7 +12520,7 @@
         <v>26022</v>
       </c>
       <c r="B59" t="n">
-        <v>130978</v>
+        <v>161722</v>
       </c>
       <c r="C59" t="s">
         <v>562</v>
@@ -12585,7 +12585,7 @@
         <v>26022</v>
       </c>
       <c r="B60" t="n">
-        <v>130979</v>
+        <v>161723</v>
       </c>
       <c r="C60" t="s">
         <v>572</v>
@@ -12656,7 +12656,7 @@
         <v>26022</v>
       </c>
       <c r="B61" t="n">
-        <v>130980</v>
+        <v>161724</v>
       </c>
       <c r="C61" t="s">
         <v>582</v>
@@ -12721,7 +12721,7 @@
         <v>26022</v>
       </c>
       <c r="B62" t="n">
-        <v>130981</v>
+        <v>161725</v>
       </c>
       <c r="C62" t="s">
         <v>590</v>
@@ -12792,7 +12792,7 @@
         <v>26022</v>
       </c>
       <c r="B63" t="n">
-        <v>130982</v>
+        <v>161726</v>
       </c>
       <c r="C63" t="s">
         <v>599</v>
@@ -12863,7 +12863,7 @@
         <v>26022</v>
       </c>
       <c r="B64" t="n">
-        <v>130983</v>
+        <v>161727</v>
       </c>
       <c r="C64" t="s">
         <v>606</v>
@@ -12999,7 +12999,7 @@
         <v>26022</v>
       </c>
       <c r="B66" t="n">
-        <v>130984</v>
+        <v>161728</v>
       </c>
       <c r="C66" t="s">
         <v>624</v>
@@ -13068,7 +13068,7 @@
         <v>26022</v>
       </c>
       <c r="B67" t="n">
-        <v>130985</v>
+        <v>161729</v>
       </c>
       <c r="C67" t="s">
         <v>633</v>
@@ -13139,7 +13139,7 @@
         <v>26022</v>
       </c>
       <c r="B68" t="n">
-        <v>130986</v>
+        <v>161730</v>
       </c>
       <c r="C68" t="s">
         <v>642</v>
@@ -13208,7 +13208,7 @@
         <v>26022</v>
       </c>
       <c r="B69" t="n">
-        <v>130987</v>
+        <v>161731</v>
       </c>
       <c r="C69" t="s">
         <v>652</v>
@@ -13344,7 +13344,7 @@
         <v>26022</v>
       </c>
       <c r="B71" t="n">
-        <v>130988</v>
+        <v>161732</v>
       </c>
       <c r="C71" t="s">
         <v>671</v>
@@ -13413,7 +13413,7 @@
         <v>26022</v>
       </c>
       <c r="B72" t="n">
-        <v>130989</v>
+        <v>161733</v>
       </c>
       <c r="C72" t="s">
         <v>681</v>
@@ -13553,7 +13553,7 @@
         <v>26022</v>
       </c>
       <c r="B74" t="n">
-        <v>130990</v>
+        <v>131005</v>
       </c>
       <c r="C74" t="s">
         <v>699</v>
@@ -13693,7 +13693,7 @@
         <v>26022</v>
       </c>
       <c r="B76" t="n">
-        <v>130991</v>
+        <v>161734</v>
       </c>
       <c r="C76" t="s">
         <v>713</v>
@@ -13890,7 +13890,7 @@
         <v>26022</v>
       </c>
       <c r="B79" t="n">
-        <v>130992</v>
+        <v>161735</v>
       </c>
       <c r="C79" t="s">
         <v>740</v>
@@ -13961,7 +13961,7 @@
         <v>26022</v>
       </c>
       <c r="B80" t="n">
-        <v>130993</v>
+        <v>161736</v>
       </c>
       <c r="C80" t="s">
         <v>746</v>
@@ -14026,7 +14026,7 @@
         <v>26022</v>
       </c>
       <c r="B81" t="n">
-        <v>130994</v>
+        <v>161737</v>
       </c>
       <c r="C81" t="s">
         <v>756</v>
@@ -14095,7 +14095,7 @@
         <v>26022</v>
       </c>
       <c r="B82" t="n">
-        <v>130995</v>
+        <v>161738</v>
       </c>
       <c r="C82" t="s">
         <v>765</v>
@@ -14166,7 +14166,7 @@
         <v>26022</v>
       </c>
       <c r="B83" t="n">
-        <v>130996</v>
+        <v>161739</v>
       </c>
       <c r="C83" t="s">
         <v>775</v>
@@ -14237,7 +14237,7 @@
         <v>26022</v>
       </c>
       <c r="B84" t="n">
-        <v>130997</v>
+        <v>161740</v>
       </c>
       <c r="C84" t="s">
         <v>784</v>
@@ -14379,7 +14379,7 @@
         <v>26022</v>
       </c>
       <c r="B86" t="n">
-        <v>130998</v>
+        <v>161741</v>
       </c>
       <c r="C86" t="s">
         <v>800</v>
@@ -14444,7 +14444,7 @@
         <v>26022</v>
       </c>
       <c r="B87" t="n">
-        <v>130999</v>
+        <v>161742</v>
       </c>
       <c r="C87" t="s">
         <v>810</v>
@@ -14580,7 +14580,7 @@
         <v>26022</v>
       </c>
       <c r="B89" t="n">
-        <v>131000</v>
+        <v>161743</v>
       </c>
       <c r="C89" t="s">
         <v>824</v>
@@ -14712,7 +14712,7 @@
         <v>26022</v>
       </c>
       <c r="B91" t="n">
-        <v>131001</v>
+        <v>161744</v>
       </c>
       <c r="C91" t="s">
         <v>840</v>
@@ -14781,7 +14781,7 @@
         <v>26022</v>
       </c>
       <c r="B92" t="n">
-        <v>131002</v>
+        <v>161745</v>
       </c>
       <c r="C92" t="s">
         <v>850</v>
@@ -14917,7 +14917,7 @@
         <v>26022</v>
       </c>
       <c r="B94" t="n">
-        <v>131003</v>
+        <v>161746</v>
       </c>
       <c r="C94" t="s">
         <v>866</v>
@@ -14988,7 +14988,7 @@
         <v>26022</v>
       </c>
       <c r="B95" t="n">
-        <v>131004</v>
+        <v>161747</v>
       </c>
       <c r="C95" t="s">
         <v>873</v>
@@ -15057,7 +15057,7 @@
         <v>26022</v>
       </c>
       <c r="B96" t="n">
-        <v>131005</v>
+        <v>161748</v>
       </c>
       <c r="C96" t="s">
         <v>880</v>
@@ -15126,7 +15126,7 @@
         <v>26022</v>
       </c>
       <c r="B97" t="n">
-        <v>131006</v>
+        <v>161749</v>
       </c>
       <c r="C97" t="s">
         <v>887</v>
@@ -15191,7 +15191,7 @@
         <v>26022</v>
       </c>
       <c r="B98" t="n">
-        <v>131007</v>
+        <v>161750</v>
       </c>
       <c r="C98" t="s">
         <v>893</v>
@@ -15260,7 +15260,7 @@
         <v>26022</v>
       </c>
       <c r="B99" t="n">
-        <v>131008</v>
+        <v>161751</v>
       </c>
       <c r="C99" t="s">
         <v>902</v>
@@ -15392,7 +15392,7 @@
         <v>26022</v>
       </c>
       <c r="B101" t="n">
-        <v>131009</v>
+        <v>161752</v>
       </c>
       <c r="C101" t="s">
         <v>918</v>
@@ -15597,7 +15597,7 @@
         <v>26022</v>
       </c>
       <c r="B104" t="n">
-        <v>131010</v>
+        <v>161753</v>
       </c>
       <c r="C104" t="s">
         <v>940</v>
@@ -15662,7 +15662,7 @@
         <v>26022</v>
       </c>
       <c r="B105" t="n">
-        <v>131011</v>
+        <v>161754</v>
       </c>
       <c r="C105" t="s">
         <v>949</v>
@@ -15731,7 +15731,7 @@
         <v>26022</v>
       </c>
       <c r="B106" t="n">
-        <v>131012</v>
+        <v>161755</v>
       </c>
       <c r="C106" t="s">
         <v>957</v>
@@ -15802,7 +15802,7 @@
         <v>26022</v>
       </c>
       <c r="B107" t="n">
-        <v>131013</v>
+        <v>161756</v>
       </c>
       <c r="C107" t="s">
         <v>964</v>
@@ -15871,7 +15871,7 @@
         <v>26022</v>
       </c>
       <c r="B108" t="n">
-        <v>131014</v>
+        <v>161757</v>
       </c>
       <c r="C108" t="s">
         <v>974</v>
@@ -15940,7 +15940,7 @@
         <v>26022</v>
       </c>
       <c r="B109" t="n">
-        <v>131015</v>
+        <v>161758</v>
       </c>
       <c r="C109" t="s">
         <v>983</v>
@@ -16011,7 +16011,7 @@
         <v>26022</v>
       </c>
       <c r="B110" t="n">
-        <v>131016</v>
+        <v>161759</v>
       </c>
       <c r="C110" t="s">
         <v>990</v>
@@ -16080,7 +16080,7 @@
         <v>26022</v>
       </c>
       <c r="B111" t="n">
-        <v>131017</v>
+        <v>161760</v>
       </c>
       <c r="C111" t="s">
         <v>1000</v>
@@ -16151,7 +16151,7 @@
         <v>26022</v>
       </c>
       <c r="B112" t="n">
-        <v>131018</v>
+        <v>161761</v>
       </c>
       <c r="C112" t="s">
         <v>1007</v>
@@ -16222,7 +16222,7 @@
         <v>26022</v>
       </c>
       <c r="B113" t="n">
-        <v>131019</v>
+        <v>161762</v>
       </c>
       <c r="C113" t="s">
         <v>1014</v>
@@ -16433,7 +16433,7 @@
         <v>26022</v>
       </c>
       <c r="B116" t="n">
-        <v>131020</v>
+        <v>161763</v>
       </c>
       <c r="C116" t="s">
         <v>1040</v>
@@ -16504,7 +16504,7 @@
         <v>26022</v>
       </c>
       <c r="B117" t="n">
-        <v>131021</v>
+        <v>161764</v>
       </c>
       <c r="C117" t="s">
         <v>1047</v>
@@ -16642,7 +16642,7 @@
         <v>26022</v>
       </c>
       <c r="B119" t="n">
-        <v>131022</v>
+        <v>161765</v>
       </c>
       <c r="C119" t="s">
         <v>1062</v>
@@ -16711,7 +16711,7 @@
         <v>26022</v>
       </c>
       <c r="B120" t="n">
-        <v>131023</v>
+        <v>161766</v>
       </c>
       <c r="C120" t="s">
         <v>1071</v>
@@ -16853,7 +16853,7 @@
         <v>26022</v>
       </c>
       <c r="B122" t="n">
-        <v>131024</v>
+        <v>161767</v>
       </c>
       <c r="C122" t="s">
         <v>1083</v>
@@ -16989,7 +16989,7 @@
         <v>26022</v>
       </c>
       <c r="B124" t="n">
-        <v>131025</v>
+        <v>161768</v>
       </c>
       <c r="C124" t="s">
         <v>1099</v>
@@ -17131,7 +17131,7 @@
         <v>26022</v>
       </c>
       <c r="B126" t="n">
-        <v>131026</v>
+        <v>161769</v>
       </c>
       <c r="C126" t="s">
         <v>1115</v>
@@ -17196,7 +17196,7 @@
         <v>26022</v>
       </c>
       <c r="B127" t="n">
-        <v>131027</v>
+        <v>161770</v>
       </c>
       <c r="C127" t="s">
         <v>1122</v>
@@ -17265,7 +17265,7 @@
         <v>26022</v>
       </c>
       <c r="B128" t="n">
-        <v>131028</v>
+        <v>161771</v>
       </c>
       <c r="C128" t="s">
         <v>1129</v>
@@ -17405,7 +17405,7 @@
         <v>26022</v>
       </c>
       <c r="B130" t="n">
-        <v>131029</v>
+        <v>161772</v>
       </c>
       <c r="C130" t="s">
         <v>1149</v>
@@ -17476,7 +17476,7 @@
         <v>26022</v>
       </c>
       <c r="B131" t="n">
-        <v>131030</v>
+        <v>161773</v>
       </c>
       <c r="C131" t="s">
         <v>1156</v>
@@ -17547,7 +17547,7 @@
         <v>26022</v>
       </c>
       <c r="B132" t="n">
-        <v>131031</v>
+        <v>161774</v>
       </c>
       <c r="C132" t="s">
         <v>1165</v>
@@ -17612,7 +17612,7 @@
         <v>26022</v>
       </c>
       <c r="B133" t="n">
-        <v>131032</v>
+        <v>130987</v>
       </c>
       <c r="C133" t="s">
         <v>1174</v>
@@ -17687,7 +17687,7 @@
         <v>26022</v>
       </c>
       <c r="B134" t="n">
-        <v>131033</v>
+        <v>161775</v>
       </c>
       <c r="C134" t="s">
         <v>1182</v>
@@ -17821,7 +17821,7 @@
         <v>26022</v>
       </c>
       <c r="B136" t="n">
-        <v>131034</v>
+        <v>161776</v>
       </c>
       <c r="C136" t="s">
         <v>1199</v>
@@ -17886,7 +17886,7 @@
         <v>26022</v>
       </c>
       <c r="B137" t="n">
-        <v>131035</v>
+        <v>161777</v>
       </c>
       <c r="C137" t="s">
         <v>1205</v>
@@ -17951,7 +17951,7 @@
         <v>26022</v>
       </c>
       <c r="B138" t="n">
-        <v>131036</v>
+        <v>161778</v>
       </c>
       <c r="C138" t="s">
         <v>1212</v>
@@ -18022,7 +18022,7 @@
         <v>26022</v>
       </c>
       <c r="B139" t="n">
-        <v>131037</v>
+        <v>161779</v>
       </c>
       <c r="C139" t="s">
         <v>1222</v>
@@ -18093,7 +18093,7 @@
         <v>26022</v>
       </c>
       <c r="B140" t="n">
-        <v>131038</v>
+        <v>161780</v>
       </c>
       <c r="C140" t="s">
         <v>1229</v>
@@ -18158,7 +18158,7 @@
         <v>26022</v>
       </c>
       <c r="B141" t="n">
-        <v>131039</v>
+        <v>161781</v>
       </c>
       <c r="C141" t="s">
         <v>1238</v>
@@ -18300,7 +18300,7 @@
         <v>26022</v>
       </c>
       <c r="B143" t="n">
-        <v>131040</v>
+        <v>161782</v>
       </c>
       <c r="C143" t="s">
         <v>1251</v>
@@ -18438,7 +18438,7 @@
         <v>26022</v>
       </c>
       <c r="B145" t="n">
-        <v>131041</v>
+        <v>161783</v>
       </c>
       <c r="C145" t="s">
         <v>1269</v>
@@ -18507,7 +18507,7 @@
         <v>26022</v>
       </c>
       <c r="B146" t="n">
-        <v>131042</v>
+        <v>161784</v>
       </c>
       <c r="C146" t="s">
         <v>1276</v>
@@ -18572,7 +18572,7 @@
         <v>26022</v>
       </c>
       <c r="B147" t="n">
-        <v>131043</v>
+        <v>161785</v>
       </c>
       <c r="C147" t="s">
         <v>1283</v>
@@ -18641,7 +18641,7 @@
         <v>26022</v>
       </c>
       <c r="B148" t="n">
-        <v>131044</v>
+        <v>161786</v>
       </c>
       <c r="C148" t="s">
         <v>1290</v>
@@ -18710,7 +18710,7 @@
         <v>26022</v>
       </c>
       <c r="B149" t="n">
-        <v>131045</v>
+        <v>161787</v>
       </c>
       <c r="C149" t="s">
         <v>1297</v>
@@ -18854,7 +18854,7 @@
         <v>26022</v>
       </c>
       <c r="B151" t="n">
-        <v>131046</v>
+        <v>161788</v>
       </c>
       <c r="C151" t="s">
         <v>1314</v>
@@ -18929,7 +18929,7 @@
         <v>26022</v>
       </c>
       <c r="B152" t="n">
-        <v>131047</v>
+        <v>161789</v>
       </c>
       <c r="C152" t="s">
         <v>1320</v>
@@ -19000,7 +19000,7 @@
         <v>26022</v>
       </c>
       <c r="B153" t="n">
-        <v>131048</v>
+        <v>161790</v>
       </c>
       <c r="C153" t="s">
         <v>1327</v>
@@ -19075,7 +19075,7 @@
         <v>26022</v>
       </c>
       <c r="B154" t="n">
-        <v>131049</v>
+        <v>161791</v>
       </c>
       <c r="C154" t="s">
         <v>1336</v>
@@ -19140,7 +19140,7 @@
         <v>26022</v>
       </c>
       <c r="B155" t="n">
-        <v>131050</v>
+        <v>161792</v>
       </c>
       <c r="C155" t="s">
         <v>1343</v>
@@ -19215,7 +19215,7 @@
         <v>26022</v>
       </c>
       <c r="B156" t="n">
-        <v>131051</v>
+        <v>161793</v>
       </c>
       <c r="C156" t="s">
         <v>1352</v>
@@ -19286,7 +19286,7 @@
         <v>26022</v>
       </c>
       <c r="B157" t="n">
-        <v>131052</v>
+        <v>161794</v>
       </c>
       <c r="C157" t="s">
         <v>1360</v>
@@ -19357,7 +19357,7 @@
         <v>26022</v>
       </c>
       <c r="B158" t="n">
-        <v>131053</v>
+        <v>130990</v>
       </c>
       <c r="C158" t="s">
         <v>1367</v>
@@ -19432,7 +19432,7 @@
         <v>26022</v>
       </c>
       <c r="B159" t="n">
-        <v>131054</v>
+        <v>161795</v>
       </c>
       <c r="C159" t="s">
         <v>1374</v>
@@ -19572,7 +19572,7 @@
         <v>26022</v>
       </c>
       <c r="B161" t="n">
-        <v>131055</v>
+        <v>161796</v>
       </c>
       <c r="C161" t="s">
         <v>1391</v>
@@ -19647,7 +19647,7 @@
         <v>26022</v>
       </c>
       <c r="B162" t="n">
-        <v>131056</v>
+        <v>161797</v>
       </c>
       <c r="C162" t="s">
         <v>1398</v>
@@ -19797,7 +19797,7 @@
         <v>26022</v>
       </c>
       <c r="B164" t="n">
-        <v>131057</v>
+        <v>161798</v>
       </c>
       <c r="C164" t="s">
         <v>1414</v>
@@ -19872,7 +19872,7 @@
         <v>26022</v>
       </c>
       <c r="B165" t="n">
-        <v>131058</v>
+        <v>161799</v>
       </c>
       <c r="C165" t="s">
         <v>1423</v>
@@ -19947,7 +19947,7 @@
         <v>26022</v>
       </c>
       <c r="B166" t="n">
-        <v>131059</v>
+        <v>161800</v>
       </c>
       <c r="C166" t="s">
         <v>1432</v>
@@ -20097,7 +20097,7 @@
         <v>26022</v>
       </c>
       <c r="B168" t="n">
-        <v>131060</v>
+        <v>161801</v>
       </c>
       <c r="C168" t="s">
         <v>1449</v>
@@ -20172,7 +20172,7 @@
         <v>26022</v>
       </c>
       <c r="B169" t="n">
-        <v>131061</v>
+        <v>161802</v>
       </c>
       <c r="C169" t="s">
         <v>1456</v>
@@ -20247,7 +20247,7 @@
         <v>26022</v>
       </c>
       <c r="B170" t="n">
-        <v>131062</v>
+        <v>161803</v>
       </c>
       <c r="C170" t="s">
         <v>1463</v>
@@ -20322,7 +20322,7 @@
         <v>26022</v>
       </c>
       <c r="B171" t="n">
-        <v>131063</v>
+        <v>161804</v>
       </c>
       <c r="C171" t="s">
         <v>1472</v>
@@ -20397,7 +20397,7 @@
         <v>26022</v>
       </c>
       <c r="B172" t="n">
-        <v>131064</v>
+        <v>161805</v>
       </c>
       <c r="C172" t="s">
         <v>1481</v>
@@ -20458,7 +20458,7 @@
         <v>26022</v>
       </c>
       <c r="B173" t="n">
-        <v>131065</v>
+        <v>161806</v>
       </c>
       <c r="C173" t="s">
         <v>1489</v>
@@ -20533,7 +20533,7 @@
         <v>26022</v>
       </c>
       <c r="B174" t="n">
-        <v>131066</v>
+        <v>161807</v>
       </c>
       <c r="C174" t="s">
         <v>1498</v>
@@ -20608,7 +20608,7 @@
         <v>26022</v>
       </c>
       <c r="B175" t="n">
-        <v>131067</v>
+        <v>161808</v>
       </c>
       <c r="C175" t="s">
         <v>1507</v>
@@ -20673,7 +20673,7 @@
         <v>26022</v>
       </c>
       <c r="B176" t="n">
-        <v>131068</v>
+        <v>161809</v>
       </c>
       <c r="C176" t="s">
         <v>1515</v>
@@ -20744,7 +20744,7 @@
         <v>26022</v>
       </c>
       <c r="B177" t="n">
-        <v>131069</v>
+        <v>161810</v>
       </c>
       <c r="C177" t="s">
         <v>1524</v>
@@ -20819,7 +20819,7 @@
         <v>26022</v>
       </c>
       <c r="B178" t="n">
-        <v>131070</v>
+        <v>161811</v>
       </c>
       <c r="C178" t="s">
         <v>1532</v>
@@ -20894,7 +20894,7 @@
         <v>26022</v>
       </c>
       <c r="B179" t="n">
-        <v>131071</v>
+        <v>161812</v>
       </c>
       <c r="C179" t="s">
         <v>1539</v>
@@ -20969,7 +20969,7 @@
         <v>26022</v>
       </c>
       <c r="B180" t="n">
-        <v>131072</v>
+        <v>161813</v>
       </c>
       <c r="C180" t="s">
         <v>1549</v>
@@ -21194,7 +21194,7 @@
         <v>26022</v>
       </c>
       <c r="B183" t="n">
-        <v>131073</v>
+        <v>161814</v>
       </c>
       <c r="C183" t="s">
         <v>1574</v>
@@ -21269,7 +21269,7 @@
         <v>26022</v>
       </c>
       <c r="B184" t="n">
-        <v>131074</v>
+        <v>161815</v>
       </c>
       <c r="C184" t="s">
         <v>1581</v>
@@ -21419,7 +21419,7 @@
         <v>26022</v>
       </c>
       <c r="B186" t="n">
-        <v>131075</v>
+        <v>161816</v>
       </c>
       <c r="C186" t="s">
         <v>1598</v>
@@ -21490,7 +21490,7 @@
         <v>26022</v>
       </c>
       <c r="B187" t="n">
-        <v>131076</v>
+        <v>161817</v>
       </c>
       <c r="C187" t="s">
         <v>1605</v>
@@ -21565,7 +21565,7 @@
         <v>26022</v>
       </c>
       <c r="B188" t="n">
-        <v>131077</v>
+        <v>161818</v>
       </c>
       <c r="C188" t="s">
         <v>1613</v>
@@ -21715,7 +21715,7 @@
         <v>26022</v>
       </c>
       <c r="B190" t="n">
-        <v>131078</v>
+        <v>161819</v>
       </c>
       <c r="C190" t="s">
         <v>1628</v>
@@ -21865,7 +21865,7 @@
         <v>26022</v>
       </c>
       <c r="B192" t="n">
-        <v>131079</v>
+        <v>161820</v>
       </c>
       <c r="C192" t="s">
         <v>1644</v>
@@ -22015,7 +22015,7 @@
         <v>26022</v>
       </c>
       <c r="B194" t="n">
-        <v>131031</v>
+        <v>130987</v>
       </c>
       <c r="C194" t="s">
         <v>1174</v>
@@ -22161,7 +22161,7 @@
         <v>26022</v>
       </c>
       <c r="B196" t="n">
-        <v>131080</v>
+        <v>161821</v>
       </c>
       <c r="C196" t="s">
         <v>1677</v>
@@ -22236,7 +22236,7 @@
         <v>26022</v>
       </c>
       <c r="B197" t="n">
-        <v>131081</v>
+        <v>161822</v>
       </c>
       <c r="C197" t="s">
         <v>1682</v>
@@ -22311,7 +22311,7 @@
         <v>26022</v>
       </c>
       <c r="B198" t="n">
-        <v>131082</v>
+        <v>161823</v>
       </c>
       <c r="C198" t="s">
         <v>1691</v>
@@ -22382,7 +22382,7 @@
         <v>26022</v>
       </c>
       <c r="B199" t="n">
-        <v>131083</v>
+        <v>161824</v>
       </c>
       <c r="C199" t="s">
         <v>1698</v>
@@ -22453,7 +22453,7 @@
         <v>26022</v>
       </c>
       <c r="B200" t="n">
-        <v>131084</v>
+        <v>161825</v>
       </c>
       <c r="C200" t="s">
         <v>1705</v>
@@ -22528,7 +22528,7 @@
         <v>26022</v>
       </c>
       <c r="B201" t="n">
-        <v>131085</v>
+        <v>161826</v>
       </c>
       <c r="C201" t="s">
         <v>1715</v>
@@ -22603,7 +22603,7 @@
         <v>26022</v>
       </c>
       <c r="B202" t="n">
-        <v>131086</v>
+        <v>161827</v>
       </c>
       <c r="C202" t="s">
         <v>1721</v>
@@ -22674,7 +22674,7 @@
         <v>26022</v>
       </c>
       <c r="B203" t="n">
-        <v>131087</v>
+        <v>161828</v>
       </c>
       <c r="C203" t="s">
         <v>1728</v>
@@ -22745,7 +22745,7 @@
         <v>26022</v>
       </c>
       <c r="B204" t="n">
-        <v>131088</v>
+        <v>161829</v>
       </c>
       <c r="C204" t="s">
         <v>1735</v>
@@ -22820,7 +22820,7 @@
         <v>26022</v>
       </c>
       <c r="B205" t="n">
-        <v>131089</v>
+        <v>161830</v>
       </c>
       <c r="C205" t="s">
         <v>1743</v>
@@ -22895,7 +22895,7 @@
         <v>26022</v>
       </c>
       <c r="B206" t="n">
-        <v>131090</v>
+        <v>161831</v>
       </c>
       <c r="C206" t="s">
         <v>1752</v>
@@ -22970,7 +22970,7 @@
         <v>26022</v>
       </c>
       <c r="B207" t="n">
-        <v>131091</v>
+        <v>161832</v>
       </c>
       <c r="C207" t="s">
         <v>1759</v>
@@ -23116,7 +23116,7 @@
         <v>26022</v>
       </c>
       <c r="B209" t="n">
-        <v>131092</v>
+        <v>161833</v>
       </c>
       <c r="C209" t="s">
         <v>1775</v>
@@ -23191,7 +23191,7 @@
         <v>26022</v>
       </c>
       <c r="B210" t="n">
-        <v>131093</v>
+        <v>161834</v>
       </c>
       <c r="C210" t="s">
         <v>1784</v>
@@ -23266,7 +23266,7 @@
         <v>26022</v>
       </c>
       <c r="B211" t="n">
-        <v>131094</v>
+        <v>161835</v>
       </c>
       <c r="C211" t="s">
         <v>1794</v>
@@ -23341,7 +23341,7 @@
         <v>26022</v>
       </c>
       <c r="B212" t="n">
-        <v>131095</v>
+        <v>161836</v>
       </c>
       <c r="C212" t="s">
         <v>1800</v>
@@ -23416,7 +23416,7 @@
         <v>26022</v>
       </c>
       <c r="B213" t="n">
-        <v>131096</v>
+        <v>161837</v>
       </c>
       <c r="C213" t="s">
         <v>1807</v>
@@ -23491,7 +23491,7 @@
         <v>26022</v>
       </c>
       <c r="B214" t="n">
-        <v>131052</v>
+        <v>130990</v>
       </c>
       <c r="C214" t="s">
         <v>1367</v>
@@ -23566,7 +23566,7 @@
         <v>26022</v>
       </c>
       <c r="B215" t="n">
-        <v>131097</v>
+        <v>161838</v>
       </c>
       <c r="C215" t="s">
         <v>1824</v>
@@ -23641,7 +23641,7 @@
         <v>26022</v>
       </c>
       <c r="B216" t="n">
-        <v>131098</v>
+        <v>161839</v>
       </c>
       <c r="C216" t="s">
         <v>1833</v>
@@ -23716,7 +23716,7 @@
         <v>26022</v>
       </c>
       <c r="B217" t="n">
-        <v>131099</v>
+        <v>161840</v>
       </c>
       <c r="C217" t="s">
         <v>1841</v>
@@ -23777,7 +23777,7 @@
         <v>26022</v>
       </c>
       <c r="B218" t="n">
-        <v>131100</v>
+        <v>161841</v>
       </c>
       <c r="C218" t="s">
         <v>1848</v>
@@ -23852,7 +23852,7 @@
         <v>26022</v>
       </c>
       <c r="B219" t="n">
-        <v>131101</v>
+        <v>161842</v>
       </c>
       <c r="C219" t="s">
         <v>1857</v>
@@ -23927,7 +23927,7 @@
         <v>26022</v>
       </c>
       <c r="B220" t="n">
-        <v>131102</v>
+        <v>161843</v>
       </c>
       <c r="C220" t="s">
         <v>1864</v>
@@ -23998,7 +23998,7 @@
         <v>26022</v>
       </c>
       <c r="B221" t="n">
-        <v>131103</v>
+        <v>161844</v>
       </c>
       <c r="C221" t="s">
         <v>1872</v>
@@ -24294,7 +24294,7 @@
         <v>26022</v>
       </c>
       <c r="B225" t="n">
-        <v>131104</v>
+        <v>161845</v>
       </c>
       <c r="C225" t="s">
         <v>1901</v>
@@ -24444,7 +24444,7 @@
         <v>26022</v>
       </c>
       <c r="B227" t="n">
-        <v>131105</v>
+        <v>161846</v>
       </c>
       <c r="C227" t="s">
         <v>1917</v>
@@ -24519,7 +24519,7 @@
         <v>26022</v>
       </c>
       <c r="B228" t="n">
-        <v>131106</v>
+        <v>161847</v>
       </c>
       <c r="C228" t="s">
         <v>1925</v>
@@ -24594,7 +24594,7 @@
         <v>26022</v>
       </c>
       <c r="B229" t="n">
-        <v>131107</v>
+        <v>161848</v>
       </c>
       <c r="C229" t="s">
         <v>1934</v>
@@ -24669,7 +24669,7 @@
         <v>26022</v>
       </c>
       <c r="B230" t="n">
-        <v>131108</v>
+        <v>161849</v>
       </c>
       <c r="C230" t="s">
         <v>1941</v>
@@ -24744,7 +24744,7 @@
         <v>26022</v>
       </c>
       <c r="B231" t="n">
-        <v>131109</v>
+        <v>161850</v>
       </c>
       <c r="C231" t="s">
         <v>1949</v>
@@ -24819,7 +24819,7 @@
         <v>26022</v>
       </c>
       <c r="B232" t="n">
-        <v>131110</v>
+        <v>161851</v>
       </c>
       <c r="C232" t="s">
         <v>1957</v>
@@ -24884,7 +24884,7 @@
         <v>26022</v>
       </c>
       <c r="B233" t="n">
-        <v>131111</v>
+        <v>161852</v>
       </c>
       <c r="C233" t="s">
         <v>1966</v>
@@ -24959,7 +24959,7 @@
         <v>26022</v>
       </c>
       <c r="B234" t="n">
-        <v>131112</v>
+        <v>161853</v>
       </c>
       <c r="C234" t="s">
         <v>1975</v>
@@ -25030,7 +25030,7 @@
         <v>26022</v>
       </c>
       <c r="B235" t="n">
-        <v>131113</v>
+        <v>161854</v>
       </c>
       <c r="C235" t="s">
         <v>1983</v>
@@ -25105,7 +25105,7 @@
         <v>26022</v>
       </c>
       <c r="B236" t="n">
-        <v>131114</v>
+        <v>161855</v>
       </c>
       <c r="C236" t="s">
         <v>1991</v>
@@ -25330,7 +25330,7 @@
         <v>26022</v>
       </c>
       <c r="B239" t="n">
-        <v>131115</v>
+        <v>161856</v>
       </c>
       <c r="C239" t="s">
         <v>2017</v>
@@ -25480,7 +25480,7 @@
         <v>26022</v>
       </c>
       <c r="B241" t="n">
-        <v>131116</v>
+        <v>161857</v>
       </c>
       <c r="C241" t="s">
         <v>2032</v>
@@ -25551,7 +25551,7 @@
         <v>26022</v>
       </c>
       <c r="B242" t="n">
-        <v>131117</v>
+        <v>161858</v>
       </c>
       <c r="C242" t="s">
         <v>2039</v>
@@ -25622,7 +25622,7 @@
         <v>26022</v>
       </c>
       <c r="B243" t="n">
-        <v>131118</v>
+        <v>161859</v>
       </c>
       <c r="C243" t="s">
         <v>2048</v>
@@ -25697,7 +25697,7 @@
         <v>26022</v>
       </c>
       <c r="B244" t="n">
-        <v>131119</v>
+        <v>161860</v>
       </c>
       <c r="C244" t="s">
         <v>2055</v>
@@ -25772,7 +25772,7 @@
         <v>26022</v>
       </c>
       <c r="B245" t="n">
-        <v>131120</v>
+        <v>161861</v>
       </c>
       <c r="C245" t="s">
         <v>2063</v>
@@ -25847,7 +25847,7 @@
         <v>26022</v>
       </c>
       <c r="B246" t="n">
-        <v>131121</v>
+        <v>161862</v>
       </c>
       <c r="C246" t="s">
         <v>2070</v>
@@ -25922,7 +25922,7 @@
         <v>26022</v>
       </c>
       <c r="B247" t="n">
-        <v>131122</v>
+        <v>161863</v>
       </c>
       <c r="C247" t="s">
         <v>2080</v>
@@ -26072,7 +26072,7 @@
         <v>26022</v>
       </c>
       <c r="B249" t="n">
-        <v>131123</v>
+        <v>161864</v>
       </c>
       <c r="C249" t="s">
         <v>2094</v>
@@ -26147,7 +26147,7 @@
         <v>26022</v>
       </c>
       <c r="B250" t="n">
-        <v>131124</v>
+        <v>161865</v>
       </c>
       <c r="C250" t="s">
         <v>2104</v>
@@ -26222,7 +26222,7 @@
         <v>26022</v>
       </c>
       <c r="B251" t="n">
-        <v>131125</v>
+        <v>161866</v>
       </c>
       <c r="C251" t="s">
         <v>2111</v>
@@ -26297,7 +26297,7 @@
         <v>26022</v>
       </c>
       <c r="B252" t="n">
-        <v>131126</v>
+        <v>161867</v>
       </c>
       <c r="C252" t="s">
         <v>2118</v>
@@ -26447,7 +26447,7 @@
         <v>26022</v>
       </c>
       <c r="B254" t="n">
-        <v>131127</v>
+        <v>161868</v>
       </c>
       <c r="C254" t="s">
         <v>2134</v>
@@ -26672,7 +26672,7 @@
         <v>26022</v>
       </c>
       <c r="B257" t="n">
-        <v>131128</v>
+        <v>161869</v>
       </c>
       <c r="C257" t="s">
         <v>2155</v>
@@ -26822,7 +26822,7 @@
         <v>26022</v>
       </c>
       <c r="B259" t="n">
-        <v>131129</v>
+        <v>161870</v>
       </c>
       <c r="C259" t="s">
         <v>2174</v>
@@ -26897,7 +26897,7 @@
         <v>26022</v>
       </c>
       <c r="B260" t="n">
-        <v>131130</v>
+        <v>161871</v>
       </c>
       <c r="C260" t="s">
         <v>2181</v>
@@ -26972,7 +26972,7 @@
         <v>26022</v>
       </c>
       <c r="B261" t="n">
-        <v>131131</v>
+        <v>161872</v>
       </c>
       <c r="C261" t="s">
         <v>2191</v>
@@ -27047,7 +27047,7 @@
         <v>26022</v>
       </c>
       <c r="B262" t="n">
-        <v>131132</v>
+        <v>161873</v>
       </c>
       <c r="C262" t="s">
         <v>2199</v>
@@ -27120,7 +27120,7 @@
         <v>26022</v>
       </c>
       <c r="B263" t="n">
-        <v>131133</v>
+        <v>161874</v>
       </c>
       <c r="C263" t="s">
         <v>2206</v>
@@ -27195,7 +27195,7 @@
         <v>26022</v>
       </c>
       <c r="B264" t="n">
-        <v>131134</v>
+        <v>161875</v>
       </c>
       <c r="C264" t="s">
         <v>2216</v>
@@ -27345,7 +27345,7 @@
         <v>26022</v>
       </c>
       <c r="B266" t="n">
-        <v>131135</v>
+        <v>161876</v>
       </c>
       <c r="C266" t="s">
         <v>2233</v>
@@ -27416,7 +27416,7 @@
         <v>26022</v>
       </c>
       <c r="B267" t="n">
-        <v>131136</v>
+        <v>161877</v>
       </c>
       <c r="C267" t="s">
         <v>2240</v>
@@ -27487,7 +27487,7 @@
         <v>26022</v>
       </c>
       <c r="B268" t="n">
-        <v>131137</v>
+        <v>161878</v>
       </c>
       <c r="C268" t="s">
         <v>2247</v>
@@ -27625,7 +27625,7 @@
         <v>26022</v>
       </c>
       <c r="B270" t="n">
-        <v>131138</v>
+        <v>161879</v>
       </c>
       <c r="C270" t="s">
         <v>2262</v>
@@ -27692,7 +27692,7 @@
         <v>26022</v>
       </c>
       <c r="B271" t="n">
-        <v>131139</v>
+        <v>161880</v>
       </c>
       <c r="C271" t="s">
         <v>2270</v>
@@ -27763,7 +27763,7 @@
         <v>26022</v>
       </c>
       <c r="B272" t="n">
-        <v>131140</v>
+        <v>161881</v>
       </c>
       <c r="C272" t="s">
         <v>2279</v>
@@ -27834,7 +27834,7 @@
         <v>26022</v>
       </c>
       <c r="B273" t="n">
-        <v>131141</v>
+        <v>161882</v>
       </c>
       <c r="C273" t="s">
         <v>2287</v>
@@ -27905,7 +27905,7 @@
         <v>26022</v>
       </c>
       <c r="B274" t="n">
-        <v>131142</v>
+        <v>161883</v>
       </c>
       <c r="C274" t="s">
         <v>2295</v>
@@ -27976,7 +27976,7 @@
         <v>26022</v>
       </c>
       <c r="B275" t="n">
-        <v>130989</v>
+        <v>131005</v>
       </c>
       <c r="C275" t="s">
         <v>699</v>
@@ -28051,7 +28051,7 @@
         <v>26022</v>
       </c>
       <c r="B276" t="n">
-        <v>131143</v>
+        <v>161884</v>
       </c>
       <c r="C276" t="s">
         <v>2309</v>
@@ -28126,7 +28126,7 @@
         <v>26022</v>
       </c>
       <c r="B277" t="n">
-        <v>131144</v>
+        <v>161885</v>
       </c>
       <c r="C277" t="s">
         <v>2317</v>
@@ -28187,7 +28187,7 @@
         <v>26022</v>
       </c>
       <c r="B278" t="n">
-        <v>131145</v>
+        <v>161886</v>
       </c>
       <c r="C278" t="s">
         <v>2323</v>
@@ -28262,7 +28262,7 @@
         <v>26022</v>
       </c>
       <c r="B279" t="n">
-        <v>131146</v>
+        <v>161887</v>
       </c>
       <c r="C279" t="s">
         <v>2333</v>
@@ -28337,7 +28337,7 @@
         <v>26022</v>
       </c>
       <c r="B280" t="n">
-        <v>131147</v>
+        <v>161888</v>
       </c>
       <c r="C280" t="s">
         <v>2341</v>
@@ -28412,7 +28412,7 @@
         <v>26022</v>
       </c>
       <c r="B281" t="n">
-        <v>131148</v>
+        <v>161889</v>
       </c>
       <c r="C281" t="s">
         <v>2348</v>
@@ -28487,7 +28487,7 @@
         <v>26022</v>
       </c>
       <c r="B282" t="n">
-        <v>131149</v>
+        <v>161890</v>
       </c>
       <c r="C282" t="s">
         <v>2358</v>
@@ -28562,7 +28562,7 @@
         <v>26022</v>
       </c>
       <c r="B283" t="n">
-        <v>131150</v>
+        <v>161891</v>
       </c>
       <c r="C283" t="s">
         <v>2368</v>
@@ -28637,7 +28637,7 @@
         <v>26022</v>
       </c>
       <c r="B284" t="n">
-        <v>131151</v>
+        <v>161892</v>
       </c>
       <c r="C284" t="s">
         <v>2376</v>
@@ -28708,7 +28708,7 @@
         <v>26022</v>
       </c>
       <c r="B285" t="n">
-        <v>131152</v>
+        <v>161893</v>
       </c>
       <c r="C285" t="s">
         <v>2385</v>
@@ -28783,7 +28783,7 @@
         <v>26022</v>
       </c>
       <c r="B286" t="n">
-        <v>131153</v>
+        <v>161894</v>
       </c>
       <c r="C286" t="s">
         <v>2393</v>
@@ -28858,7 +28858,7 @@
         <v>26022</v>
       </c>
       <c r="B287" t="n">
-        <v>131154</v>
+        <v>161895</v>
       </c>
       <c r="C287" t="s">
         <v>2402</v>
@@ -28933,7 +28933,7 @@
         <v>26022</v>
       </c>
       <c r="B288" t="n">
-        <v>131155</v>
+        <v>161896</v>
       </c>
       <c r="C288" t="s">
         <v>2412</v>
@@ -29008,7 +29008,7 @@
         <v>26022</v>
       </c>
       <c r="B289" t="n">
-        <v>131156</v>
+        <v>161897</v>
       </c>
       <c r="C289" t="s">
         <v>2421</v>
@@ -29083,7 +29083,7 @@
         <v>26022</v>
       </c>
       <c r="B290" t="n">
-        <v>131157</v>
+        <v>161898</v>
       </c>
       <c r="C290" t="s">
         <v>2429</v>
@@ -29158,7 +29158,7 @@
         <v>26022</v>
       </c>
       <c r="B291" t="n">
-        <v>131158</v>
+        <v>161899</v>
       </c>
       <c r="C291" t="s">
         <v>2439</v>
@@ -29304,7 +29304,7 @@
         <v>26022</v>
       </c>
       <c r="B293" t="n">
-        <v>131159</v>
+        <v>161900</v>
       </c>
       <c r="C293" t="s">
         <v>2455</v>
@@ -29375,7 +29375,7 @@
         <v>26022</v>
       </c>
       <c r="B294" t="n">
-        <v>131160</v>
+        <v>161901</v>
       </c>
       <c r="C294" t="s">
         <v>2463</v>
@@ -29432,7 +29432,7 @@
         <v>26022</v>
       </c>
       <c r="B295" t="n">
-        <v>131161</v>
+        <v>161902</v>
       </c>
       <c r="C295" t="s">
         <v>2470</v>
@@ -29503,7 +29503,7 @@
         <v>26022</v>
       </c>
       <c r="B296" t="n">
-        <v>131162</v>
+        <v>161903</v>
       </c>
       <c r="C296" t="s">
         <v>2478</v>
@@ -29574,7 +29574,7 @@
         <v>26022</v>
       </c>
       <c r="B297" t="n">
-        <v>131163</v>
+        <v>161904</v>
       </c>
       <c r="C297" t="s">
         <v>2486</v>
@@ -29645,7 +29645,7 @@
         <v>26022</v>
       </c>
       <c r="B298" t="n">
-        <v>131164</v>
+        <v>161905</v>
       </c>
       <c r="C298" t="s">
         <v>2492</v>
@@ -29714,7 +29714,7 @@
         <v>26022</v>
       </c>
       <c r="B299" t="n">
-        <v>131165</v>
+        <v>161906</v>
       </c>
       <c r="C299" t="s">
         <v>2500</v>
@@ -29785,7 +29785,7 @@
         <v>26022</v>
       </c>
       <c r="B300" t="n">
-        <v>131166</v>
+        <v>161907</v>
       </c>
       <c r="C300" t="s">
         <v>2507</v>
@@ -29856,7 +29856,7 @@
         <v>26022</v>
       </c>
       <c r="B301" t="n">
-        <v>131167</v>
+        <v>161908</v>
       </c>
       <c r="C301" t="s">
         <v>2514</v>
@@ -29923,7 +29923,7 @@
         <v>26022</v>
       </c>
       <c r="B302" t="n">
-        <v>131168</v>
+        <v>161909</v>
       </c>
       <c r="C302" t="s">
         <v>2520</v>
@@ -29994,7 +29994,7 @@
         <v>26022</v>
       </c>
       <c r="B303" t="n">
-        <v>131169</v>
+        <v>161910</v>
       </c>
       <c r="C303" t="s">
         <v>2528</v>
@@ -30051,7 +30051,7 @@
         <v>26022</v>
       </c>
       <c r="B304" t="n">
-        <v>131170</v>
+        <v>161911</v>
       </c>
       <c r="C304" t="s">
         <v>2534</v>
@@ -30165,7 +30165,7 @@
         <v>26022</v>
       </c>
       <c r="B306" t="n">
-        <v>131171</v>
+        <v>161912</v>
       </c>
       <c r="C306" t="s">
         <v>2547</v>
@@ -30295,7 +30295,7 @@
         <v>26022</v>
       </c>
       <c r="B308" t="n">
-        <v>131172</v>
+        <v>161913</v>
       </c>
       <c r="C308" t="s">
         <v>2560</v>
@@ -30360,7 +30360,7 @@
         <v>26022</v>
       </c>
       <c r="B309" t="n">
-        <v>131173</v>
+        <v>161914</v>
       </c>
       <c r="C309" t="s">
         <v>2567</v>
@@ -30490,7 +30490,7 @@
         <v>26022</v>
       </c>
       <c r="B311" t="n">
-        <v>131174</v>
+        <v>161915</v>
       </c>
       <c r="C311" t="s">
         <v>2578</v>
@@ -30555,7 +30555,7 @@
         <v>26022</v>
       </c>
       <c r="B312" t="n">
-        <v>131175</v>
+        <v>161916</v>
       </c>
       <c r="C312" t="s">
         <v>2585</v>
@@ -30612,7 +30612,7 @@
         <v>26022</v>
       </c>
       <c r="B313" t="n">
-        <v>131176</v>
+        <v>161917</v>
       </c>
       <c r="C313" t="s">
         <v>2591</v>
@@ -30847,7 +30847,7 @@
         <v>26022</v>
       </c>
       <c r="B317" t="n">
-        <v>131177</v>
+        <v>161918</v>
       </c>
       <c r="C317" t="s">
         <v>2610</v>
@@ -30902,7 +30902,7 @@
         <v>26022</v>
       </c>
       <c r="B318" t="n">
-        <v>131178</v>
+        <v>161919</v>
       </c>
       <c r="C318" t="s">
         <v>2616</v>
